--- a/result/NCDC_weather_data/stations_imputed/54342499999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/54342499999.xlsx
@@ -574,7 +574,9 @@
       <c r="P2" t="n">
         <v>28.04</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
       <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
